--- a/Dataset/FRENTE_TOTAL.xlsx
+++ b/Dataset/FRENTE_TOTAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reyi0\OneDrive\Documentos\Universidad\IABO\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341482B2-5B61-44A6-8B56-212E4416F314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E014613E-1965-45E4-AD49-35F356FB7139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B57A87D5-C09A-A64B-86A9-0BD4F487567A}"/>
   </bookViews>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="1">
+  <si>
+    <t>FRENTE</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,15 +458,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A059C983-FAD5-B84E-B3B3-2D976EB6065F}">
-  <dimension ref="A1:G1269"/>
+  <dimension ref="A1:H1269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="A551" sqref="A551:XFD1269"/>
+    <sheetView tabSelected="1" topLeftCell="A539" workbookViewId="0">
+      <selection activeCell="I548" sqref="I548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0.3</v>
       </c>
@@ -480,8 +488,11 @@
       <c r="G1" s="2">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0.28000000000000003</v>
       </c>
@@ -503,8 +514,11 @@
       <c r="G2" s="4">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.31</v>
       </c>
@@ -526,8 +540,11 @@
       <c r="G3" s="2">
         <v>38.11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.3</v>
       </c>
@@ -549,8 +566,11 @@
       <c r="G4" s="4">
         <v>38.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.3</v>
       </c>
@@ -572,8 +592,11 @@
       <c r="G5" s="2">
         <v>38.14</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.31</v>
       </c>
@@ -595,8 +618,11 @@
       <c r="G6" s="4">
         <v>38.14</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.31</v>
       </c>
@@ -618,8 +644,11 @@
       <c r="G7" s="2">
         <v>38.11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.31</v>
       </c>
@@ -641,8 +670,11 @@
       <c r="G8" s="4">
         <v>38.119999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.3</v>
       </c>
@@ -664,8 +696,11 @@
       <c r="G9" s="2">
         <v>38.15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.28999999999999998</v>
       </c>
@@ -687,8 +722,11 @@
       <c r="G10" s="4">
         <v>38.130000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.3</v>
       </c>
@@ -710,8 +748,11 @@
       <c r="G11" s="2">
         <v>38.14</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.3</v>
       </c>
@@ -733,8 +774,11 @@
       <c r="G12" s="4">
         <v>38.159999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.3</v>
       </c>
@@ -756,8 +800,11 @@
       <c r="G13" s="2">
         <v>38.17</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>0.31</v>
       </c>
@@ -779,8 +826,11 @@
       <c r="G14" s="4">
         <v>38.159999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.28999999999999998</v>
       </c>
@@ -802,8 +852,11 @@
       <c r="G15" s="2">
         <v>38.159999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.4</v>
       </c>
@@ -825,8 +878,11 @@
       <c r="G16" s="4">
         <v>38.159999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>-0.02</v>
       </c>
@@ -848,8 +904,11 @@
       <c r="G17" s="2">
         <v>38.130000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>-0.05</v>
       </c>
@@ -871,8 +930,11 @@
       <c r="G18" s="4">
         <v>38.11</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>-0.02</v>
       </c>
@@ -894,8 +956,11 @@
       <c r="G19" s="2">
         <v>38.119999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>-0.09</v>
       </c>
@@ -917,8 +982,11 @@
       <c r="G20" s="4">
         <v>38.11</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>-0.22</v>
       </c>
@@ -940,8 +1008,11 @@
       <c r="G21" s="2">
         <v>38.14</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>-0.08</v>
       </c>
@@ -963,8 +1034,11 @@
       <c r="G22" s="4">
         <v>38.119999999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.03</v>
       </c>
@@ -986,8 +1060,11 @@
       <c r="G23" s="2">
         <v>38.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -1009,8 +1086,11 @@
       <c r="G24" s="4">
         <v>38.11</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.11</v>
       </c>
@@ -1032,8 +1112,11 @@
       <c r="G25" s="2">
         <v>38.11</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>-0.04</v>
       </c>
@@ -1055,8 +1138,11 @@
       <c r="G26" s="4">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>-0.02</v>
       </c>
@@ -1078,8 +1164,11 @@
       <c r="G27" s="2">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>0.06</v>
       </c>
@@ -1101,8 +1190,11 @@
       <c r="G28" s="4">
         <v>38.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.25</v>
       </c>
@@ -1124,8 +1216,11 @@
       <c r="G29" s="2">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>0.26</v>
       </c>
@@ -1147,8 +1242,11 @@
       <c r="G30" s="4">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.59</v>
       </c>
@@ -1170,8 +1268,11 @@
       <c r="G31" s="2">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -1193,8 +1294,11 @@
       <c r="G32" s="4">
         <v>38.11</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.46</v>
       </c>
@@ -1216,8 +1320,11 @@
       <c r="G33" s="2">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>0.51</v>
       </c>
@@ -1239,8 +1346,11 @@
       <c r="G34" s="4">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.53</v>
       </c>
@@ -1262,8 +1372,11 @@
       <c r="G35" s="2">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>0.5</v>
       </c>
@@ -1285,8 +1398,11 @@
       <c r="G36" s="4">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.28999999999999998</v>
       </c>
@@ -1308,8 +1424,11 @@
       <c r="G37" s="2">
         <v>38.08</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>0.28000000000000003</v>
       </c>
@@ -1331,8 +1450,11 @@
       <c r="G38" s="4">
         <v>38.08</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.19</v>
       </c>
@@ -1354,8 +1476,11 @@
       <c r="G39" s="2">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>0.16</v>
       </c>
@@ -1377,8 +1502,11 @@
       <c r="G40" s="4">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.28000000000000003</v>
       </c>
@@ -1400,8 +1528,11 @@
       <c r="G41" s="2">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>0.31</v>
       </c>
@@ -1423,8 +1554,11 @@
       <c r="G42" s="4">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.34</v>
       </c>
@@ -1446,8 +1580,11 @@
       <c r="G43" s="2">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>0.38</v>
       </c>
@@ -1469,8 +1606,11 @@
       <c r="G44" s="4">
         <v>38.08</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.34</v>
       </c>
@@ -1492,8 +1632,11 @@
       <c r="G45" s="2">
         <v>38.08</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>0.31</v>
       </c>
@@ -1515,8 +1658,11 @@
       <c r="G46" s="4">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.35</v>
       </c>
@@ -1538,8 +1684,11 @@
       <c r="G47" s="2">
         <v>38.08</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>0.28999999999999998</v>
       </c>
@@ -1561,8 +1710,11 @@
       <c r="G48" s="4">
         <v>38.03</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.22</v>
       </c>
@@ -1584,8 +1736,11 @@
       <c r="G49" s="2">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>0.28000000000000003</v>
       </c>
@@ -1607,8 +1762,11 @@
       <c r="G50" s="4">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>-0.01</v>
       </c>
@@ -1630,8 +1788,11 @@
       <c r="G51" s="2">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>-0.01</v>
       </c>
@@ -1653,8 +1814,11 @@
       <c r="G52" s="4">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>-0.01</v>
       </c>
@@ -1676,8 +1840,11 @@
       <c r="G53" s="2">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>0</v>
       </c>
@@ -1699,8 +1866,11 @@
       <c r="G54" s="4">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>-0.01</v>
       </c>
@@ -1722,8 +1892,11 @@
       <c r="G55" s="2">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>-0.02</v>
       </c>
@@ -1745,8 +1918,11 @@
       <c r="G56" s="4">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>-0.01</v>
       </c>
@@ -1768,8 +1944,11 @@
       <c r="G57" s="2">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>-0.01</v>
       </c>
@@ -1791,8 +1970,11 @@
       <c r="G58" s="4">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>-0.02</v>
       </c>
@@ -1814,8 +1996,11 @@
       <c r="G59" s="2">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>0.01</v>
       </c>
@@ -1837,8 +2022,11 @@
       <c r="G60" s="4">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0</v>
       </c>
@@ -1860,8 +2048,11 @@
       <c r="G61" s="2">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>0.02</v>
       </c>
@@ -1883,8 +2074,11 @@
       <c r="G62" s="4">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.03</v>
       </c>
@@ -1906,8 +2100,11 @@
       <c r="G63" s="2">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>0.14000000000000001</v>
       </c>
@@ -1929,8 +2126,11 @@
       <c r="G64" s="4">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.15</v>
       </c>
@@ -1952,8 +2152,11 @@
       <c r="G65" s="2">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>0.28000000000000003</v>
       </c>
@@ -1975,8 +2178,11 @@
       <c r="G66" s="4">
         <v>38.03</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.31</v>
       </c>
@@ -1998,8 +2204,11 @@
       <c r="G67" s="2">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>0.34</v>
       </c>
@@ -2021,8 +2230,11 @@
       <c r="G68" s="4">
         <v>38.04</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0.43</v>
       </c>
@@ -2044,8 +2256,11 @@
       <c r="G69" s="2">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>0.46</v>
       </c>
@@ -2067,8 +2282,11 @@
       <c r="G70" s="4">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.47</v>
       </c>
@@ -2090,8 +2308,11 @@
       <c r="G71" s="2">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>0.48</v>
       </c>
@@ -2113,8 +2334,11 @@
       <c r="G72" s="4">
         <v>38.08</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0.39</v>
       </c>
@@ -2136,8 +2360,11 @@
       <c r="G73" s="2">
         <v>38.08</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>0.41</v>
       </c>
@@ -2159,8 +2386,11 @@
       <c r="G74" s="4">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0.43</v>
       </c>
@@ -2182,8 +2412,11 @@
       <c r="G75" s="2">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>0.37</v>
       </c>
@@ -2205,8 +2438,11 @@
       <c r="G76" s="4">
         <v>38.08</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.42</v>
       </c>
@@ -2228,8 +2464,11 @@
       <c r="G77" s="2">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>0.36</v>
       </c>
@@ -2251,8 +2490,11 @@
       <c r="G78" s="4">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.3</v>
       </c>
@@ -2274,8 +2516,11 @@
       <c r="G79" s="2">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>0.28000000000000003</v>
       </c>
@@ -2297,8 +2542,11 @@
       <c r="G80" s="4">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0.31</v>
       </c>
@@ -2320,8 +2568,11 @@
       <c r="G81" s="2">
         <v>38.11</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>0.3</v>
       </c>
@@ -2343,8 +2594,11 @@
       <c r="G82" s="4">
         <v>38.1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0.3</v>
       </c>
@@ -2366,8 +2620,11 @@
       <c r="G83" s="2">
         <v>38.14</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>0.31</v>
       </c>
@@ -2389,8 +2646,11 @@
       <c r="G84" s="4">
         <v>38.14</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.31</v>
       </c>
@@ -2412,8 +2672,11 @@
       <c r="G85" s="2">
         <v>38.11</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>0.31</v>
       </c>
@@ -2435,8 +2698,11 @@
       <c r="G86" s="4">
         <v>38.119999999999997</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0.3</v>
       </c>
@@ -2458,8 +2724,11 @@
       <c r="G87" s="2">
         <v>38.15</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>0.28999999999999998</v>
       </c>
@@ -2481,8 +2750,11 @@
       <c r="G88" s="4">
         <v>38.130000000000003</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0.3</v>
       </c>
@@ -2504,8 +2776,11 @@
       <c r="G89" s="2">
         <v>38.14</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>0.3</v>
       </c>
@@ -2527,8 +2802,11 @@
       <c r="G90" s="4">
         <v>38.159999999999997</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.3</v>
       </c>
@@ -2550,8 +2828,11 @@
       <c r="G91" s="2">
         <v>38.17</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>0.31</v>
       </c>
@@ -2573,8 +2854,11 @@
       <c r="G92" s="4">
         <v>38.159999999999997</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.28999999999999998</v>
       </c>
@@ -2596,8 +2880,11 @@
       <c r="G93" s="2">
         <v>38.159999999999997</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>0.4</v>
       </c>
@@ -2619,8 +2906,11 @@
       <c r="G94" s="4">
         <v>38.159999999999997</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>-0.02</v>
       </c>
@@ -2642,8 +2932,11 @@
       <c r="G95" s="2">
         <v>38.130000000000003</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>-0.05</v>
       </c>
@@ -2665,8 +2958,11 @@
       <c r="G96" s="4">
         <v>38.11</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>-0.02</v>
       </c>
@@ -2688,8 +2984,11 @@
       <c r="G97" s="2">
         <v>38.119999999999997</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>-0.09</v>
       </c>
@@ -2711,8 +3010,11 @@
       <c r="G98" s="4">
         <v>38.11</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>-0.22</v>
       </c>
@@ -2734,8 +3036,11 @@
       <c r="G99" s="2">
         <v>38.14</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>-0.08</v>
       </c>
@@ -2757,8 +3062,11 @@
       <c r="G100" s="4">
         <v>38.119999999999997</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>0.03</v>
       </c>
@@ -2780,8 +3088,11 @@
       <c r="G101" s="2">
         <v>38.1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -2803,8 +3114,11 @@
       <c r="G102" s="4">
         <v>38.11</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>0.11</v>
       </c>
@@ -2826,8 +3140,11 @@
       <c r="G103" s="2">
         <v>38.11</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>-0.04</v>
       </c>
@@ -2849,8 +3166,11 @@
       <c r="G104" s="4">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>-0.02</v>
       </c>
@@ -2872,8 +3192,11 @@
       <c r="G105" s="2">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>0.06</v>
       </c>
@@ -2895,8 +3218,11 @@
       <c r="G106" s="4">
         <v>38.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>0.25</v>
       </c>
@@ -2918,8 +3244,11 @@
       <c r="G107" s="2">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>0.26</v>
       </c>
@@ -2941,8 +3270,11 @@
       <c r="G108" s="4">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>0.59</v>
       </c>
@@ -2964,8 +3296,11 @@
       <c r="G109" s="2">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -2987,8 +3322,11 @@
       <c r="G110" s="4">
         <v>38.11</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>0.46</v>
       </c>
@@ -3010,8 +3348,11 @@
       <c r="G111" s="2">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>0.51</v>
       </c>
@@ -3033,8 +3374,11 @@
       <c r="G112" s="4">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>0.53</v>
       </c>
@@ -3056,8 +3400,11 @@
       <c r="G113" s="2">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>0.5</v>
       </c>
@@ -3079,8 +3426,11 @@
       <c r="G114" s="4">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>0.28999999999999998</v>
       </c>
@@ -3102,8 +3452,11 @@
       <c r="G115" s="2">
         <v>38.08</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>0.28000000000000003</v>
       </c>
@@ -3125,8 +3478,11 @@
       <c r="G116" s="4">
         <v>38.08</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>0.19</v>
       </c>
@@ -3148,8 +3504,11 @@
       <c r="G117" s="2">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>0.16</v>
       </c>
@@ -3171,8 +3530,11 @@
       <c r="G118" s="4">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>0.28000000000000003</v>
       </c>
@@ -3194,8 +3556,11 @@
       <c r="G119" s="2">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>0.31</v>
       </c>
@@ -3217,8 +3582,11 @@
       <c r="G120" s="4">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>0.34</v>
       </c>
@@ -3240,8 +3608,11 @@
       <c r="G121" s="2">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>0.38</v>
       </c>
@@ -3263,8 +3634,11 @@
       <c r="G122" s="4">
         <v>38.08</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>0.34</v>
       </c>
@@ -3286,8 +3660,11 @@
       <c r="G123" s="2">
         <v>38.08</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>0.31</v>
       </c>
@@ -3309,8 +3686,11 @@
       <c r="G124" s="4">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>0.35</v>
       </c>
@@ -3332,8 +3712,11 @@
       <c r="G125" s="2">
         <v>38.08</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>0.28999999999999998</v>
       </c>
@@ -3355,8 +3738,11 @@
       <c r="G126" s="4">
         <v>38.03</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>0.22</v>
       </c>
@@ -3378,8 +3764,11 @@
       <c r="G127" s="2">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>0.28000000000000003</v>
       </c>
@@ -3401,8 +3790,11 @@
       <c r="G128" s="4">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>-0.01</v>
       </c>
@@ -3424,8 +3816,11 @@
       <c r="G129" s="2">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>-0.01</v>
       </c>
@@ -3447,8 +3842,11 @@
       <c r="G130" s="4">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>-0.01</v>
       </c>
@@ -3470,8 +3868,11 @@
       <c r="G131" s="2">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>0</v>
       </c>
@@ -3493,8 +3894,11 @@
       <c r="G132" s="4">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>-0.01</v>
       </c>
@@ -3516,8 +3920,11 @@
       <c r="G133" s="2">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>-0.02</v>
       </c>
@@ -3539,8 +3946,11 @@
       <c r="G134" s="4">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>-0.01</v>
       </c>
@@ -3562,8 +3972,11 @@
       <c r="G135" s="2">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>-0.01</v>
       </c>
@@ -3585,8 +3998,11 @@
       <c r="G136" s="4">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>-0.02</v>
       </c>
@@ -3608,8 +4024,11 @@
       <c r="G137" s="2">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>0.01</v>
       </c>
@@ -3631,8 +4050,11 @@
       <c r="G138" s="4">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>0</v>
       </c>
@@ -3654,8 +4076,11 @@
       <c r="G139" s="2">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>0.02</v>
       </c>
@@ -3677,8 +4102,11 @@
       <c r="G140" s="4">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>0.03</v>
       </c>
@@ -3700,8 +4128,11 @@
       <c r="G141" s="2">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>0.14000000000000001</v>
       </c>
@@ -3723,8 +4154,11 @@
       <c r="G142" s="4">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>0.15</v>
       </c>
@@ -3746,8 +4180,11 @@
       <c r="G143" s="2">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>0.28000000000000003</v>
       </c>
@@ -3769,8 +4206,11 @@
       <c r="G144" s="4">
         <v>38.03</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>0.31</v>
       </c>
@@ -3792,8 +4232,11 @@
       <c r="G145" s="2">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>0.34</v>
       </c>
@@ -3815,8 +4258,11 @@
       <c r="G146" s="4">
         <v>38.04</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>0.43</v>
       </c>
@@ -3838,8 +4284,11 @@
       <c r="G147" s="2">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>0.46</v>
       </c>
@@ -3861,8 +4310,11 @@
       <c r="G148" s="4">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>0.47</v>
       </c>
@@ -3884,8 +4336,11 @@
       <c r="G149" s="2">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>0.48</v>
       </c>
@@ -3907,8 +4362,11 @@
       <c r="G150" s="4">
         <v>38.08</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>0.39</v>
       </c>
@@ -3930,8 +4388,11 @@
       <c r="G151" s="2">
         <v>38.08</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>0.41</v>
       </c>
@@ -3953,8 +4414,11 @@
       <c r="G152" s="4">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>0.43</v>
       </c>
@@ -3976,8 +4440,11 @@
       <c r="G153" s="2">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>0.37</v>
       </c>
@@ -3999,8 +4466,11 @@
       <c r="G154" s="4">
         <v>38.08</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>0.42</v>
       </c>
@@ -4022,8 +4492,11 @@
       <c r="G155" s="2">
         <v>38.06</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>0.36</v>
       </c>
@@ -4045,8 +4518,11 @@
       <c r="G156" s="4">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>-0.03</v>
       </c>
@@ -4068,8 +4544,11 @@
       <c r="G157" s="6">
         <v>34.380000000000003</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>0.02</v>
       </c>
@@ -4091,8 +4570,11 @@
       <c r="G158" s="8">
         <v>34.39</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>0.12</v>
       </c>
@@ -4114,8 +4596,11 @@
       <c r="G159" s="6">
         <v>34.39</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>0.33</v>
       </c>
@@ -4137,8 +4622,11 @@
       <c r="G160" s="8">
         <v>34.42</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>0.06</v>
       </c>
@@ -4160,8 +4648,11 @@
       <c r="G161" s="6">
         <v>34.380000000000003</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>-0.1</v>
       </c>
@@ -4183,8 +4674,11 @@
       <c r="G162" s="8">
         <v>34.409999999999997</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>0.08</v>
       </c>
@@ -4206,8 +4700,11 @@
       <c r="G163" s="6">
         <v>34.409999999999997</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <v>0.04</v>
       </c>
@@ -4229,8 +4726,11 @@
       <c r="G164" s="8">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>-0.18</v>
       </c>
@@ -4252,8 +4752,11 @@
       <c r="G165" s="6">
         <v>34.39</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>-0.17</v>
       </c>
@@ -4275,8 +4778,11 @@
       <c r="G166" s="8">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>-0.17</v>
       </c>
@@ -4298,8 +4804,11 @@
       <c r="G167" s="6">
         <v>34.380000000000003</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>-0.04</v>
       </c>
@@ -4321,8 +4830,11 @@
       <c r="G168" s="8">
         <v>34.39</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>-0.06</v>
       </c>
@@ -4344,8 +4856,11 @@
       <c r="G169" s="6">
         <v>34.369999999999997</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>0.14000000000000001</v>
       </c>
@@ -4367,8 +4882,11 @@
       <c r="G170" s="8">
         <v>34.369999999999997</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>-0.23</v>
       </c>
@@ -4390,8 +4908,11 @@
       <c r="G171" s="6">
         <v>34.369999999999997</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <v>-0.09</v>
       </c>
@@ -4413,8 +4934,11 @@
       <c r="G172" s="8">
         <v>34.380000000000003</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>-0.11</v>
       </c>
@@ -4436,8 +4960,11 @@
       <c r="G173" s="6">
         <v>34.32</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>-0.09</v>
       </c>
@@ -4459,8 +4986,11 @@
       <c r="G174" s="8">
         <v>34.340000000000003</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>-0.12</v>
       </c>
@@ -4482,8 +5012,11 @@
       <c r="G175" s="6">
         <v>34.340000000000003</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>0.15</v>
       </c>
@@ -4505,8 +5038,11 @@
       <c r="G176" s="8">
         <v>34.299999999999997</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>-0.1</v>
       </c>
@@ -4528,8 +5064,11 @@
       <c r="G177" s="6">
         <v>34.270000000000003</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>-0.26</v>
       </c>
@@ -4551,8 +5090,11 @@
       <c r="G178" s="8">
         <v>34.29</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>-0.13</v>
       </c>
@@ -4574,8 +5116,11 @@
       <c r="G179" s="6">
         <v>34.28</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>-0.28000000000000003</v>
       </c>
@@ -4597,8 +5142,11 @@
       <c r="G180" s="8">
         <v>34.24</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>-0.06</v>
       </c>
@@ -4620,8 +5168,11 @@
       <c r="G181" s="6">
         <v>34.22</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>-0.18</v>
       </c>
@@ -4643,8 +5194,11 @@
       <c r="G182" s="8">
         <v>34.24</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>-0.23</v>
       </c>
@@ -4666,8 +5220,11 @@
       <c r="G183" s="6">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <v>-0.08</v>
       </c>
@@ -4689,8 +5246,11 @@
       <c r="G184" s="8">
         <v>34.18</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>0</v>
       </c>
@@ -4712,8 +5272,11 @@
       <c r="G185" s="6">
         <v>34.21</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <v>0.22</v>
       </c>
@@ -4735,8 +5298,11 @@
       <c r="G186" s="8">
         <v>34.17</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>-0.01</v>
       </c>
@@ -4758,8 +5324,11 @@
       <c r="G187" s="6">
         <v>34.159999999999997</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <v>-0.17</v>
       </c>
@@ -4781,8 +5350,11 @@
       <c r="G188" s="8">
         <v>34.17</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>-0.26</v>
       </c>
@@ -4804,8 +5376,11 @@
       <c r="G189" s="6">
         <v>34.159999999999997</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <v>-0.09</v>
       </c>
@@ -4827,8 +5402,11 @@
       <c r="G190" s="8">
         <v>34.1</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>-0.11</v>
       </c>
@@ -4850,8 +5428,11 @@
       <c r="G191" s="6">
         <v>34.11</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -4873,8 +5454,11 @@
       <c r="G192" s="8">
         <v>34.07</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>-0.18</v>
       </c>
@@ -4896,8 +5480,11 @@
       <c r="G193" s="6">
         <v>34.049999999999997</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>-0.04</v>
       </c>
@@ -4919,8 +5506,11 @@
       <c r="G194" s="8">
         <v>34.08</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>-0.04</v>
       </c>
@@ -4942,8 +5532,11 @@
       <c r="G195" s="6">
         <v>34.04</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>-0.26</v>
       </c>
@@ -4965,8 +5558,11 @@
       <c r="G196" s="8">
         <v>34.04</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>-0.02</v>
       </c>
@@ -4988,8 +5584,11 @@
       <c r="G197" s="6">
         <v>34.01</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <v>-0.13</v>
       </c>
@@ -5011,8 +5610,11 @@
       <c r="G198" s="8">
         <v>34.020000000000003</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>-0.35</v>
       </c>
@@ -5034,8 +5636,11 @@
       <c r="G199" s="6">
         <v>33.96</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>-0.03</v>
       </c>
@@ -5057,8 +5662,11 @@
       <c r="G200" s="8">
         <v>33.979999999999997</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>0</v>
       </c>
@@ -5080,8 +5688,11 @@
       <c r="G201" s="6">
         <v>33.979999999999997</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>-0.2</v>
       </c>
@@ -5103,8 +5714,11 @@
       <c r="G202" s="8">
         <v>33.94</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>0.01</v>
       </c>
@@ -5126,8 +5740,11 @@
       <c r="G203" s="6">
         <v>33.909999999999997</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <v>-0.18</v>
       </c>
@@ -5149,8 +5766,11 @@
       <c r="G204" s="8">
         <v>33.909999999999997</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
         <v>-0.17</v>
       </c>
@@ -5172,8 +5792,11 @@
       <c r="G205" s="6">
         <v>33.909999999999997</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>-0.03</v>
       </c>
@@ -5195,8 +5818,11 @@
       <c r="G206" s="8">
         <v>33.909999999999997</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <v>-0.18</v>
       </c>
@@ -5218,8 +5844,11 @@
       <c r="G207" s="6">
         <v>33.869999999999997</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <v>-0.19</v>
       </c>
@@ -5241,8 +5870,11 @@
       <c r="G208" s="8">
         <v>33.840000000000003</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
         <v>-0.05</v>
       </c>
@@ -5264,8 +5896,11 @@
       <c r="G209" s="6">
         <v>33.840000000000003</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>-0.42</v>
       </c>
@@ -5287,8 +5922,11 @@
       <c r="G210" s="8">
         <v>33.869999999999997</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>-0.12</v>
       </c>
@@ -5310,8 +5948,11 @@
       <c r="G211" s="6">
         <v>33.82</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>-0.27</v>
       </c>
@@ -5333,8 +5974,11 @@
       <c r="G212" s="8">
         <v>33.840000000000003</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
         <v>-0.17</v>
       </c>
@@ -5356,8 +6000,11 @@
       <c r="G213" s="6">
         <v>33.770000000000003</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>-0.09</v>
       </c>
@@ -5379,8 +6026,11 @@
       <c r="G214" s="8">
         <v>33.78</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -5402,8 +6052,11 @@
       <c r="G215" s="6">
         <v>33.79</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>-0.38</v>
       </c>
@@ -5425,8 +6078,11 @@
       <c r="G216" s="8">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
         <v>-0.1</v>
       </c>
@@ -5448,8 +6104,11 @@
       <c r="G217" s="6">
         <v>33.75</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>-0.18</v>
       </c>
@@ -5471,8 +6130,11 @@
       <c r="G218" s="8">
         <v>33.78</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -5494,8 +6156,11 @@
       <c r="G219" s="6">
         <v>33.68</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H219" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>-0.01</v>
       </c>
@@ -5517,8 +6182,11 @@
       <c r="G220" s="8">
         <v>33.700000000000003</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
         <v>-0.33</v>
       </c>
@@ -5540,8 +6208,11 @@
       <c r="G221" s="6">
         <v>33.71</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H221" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <v>-0.24</v>
       </c>
@@ -5563,8 +6234,11 @@
       <c r="G222" s="8">
         <v>33.69</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H222" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
         <v>-0.11</v>
       </c>
@@ -5586,8 +6260,11 @@
       <c r="G223" s="6">
         <v>33.71</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H223" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>-0.13</v>
       </c>
@@ -5609,8 +6286,11 @@
       <c r="G224" s="8">
         <v>33.67</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
         <v>0.1</v>
       </c>
@@ -5632,8 +6312,11 @@
       <c r="G225" s="6">
         <v>33.67</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H225" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <v>-0.09</v>
       </c>
@@ -5655,8 +6338,11 @@
       <c r="G226" s="8">
         <v>33.67</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -5678,8 +6364,11 @@
       <c r="G227" s="6">
         <v>33.65</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <v>-0.12</v>
       </c>
@@ -5701,8 +6390,11 @@
       <c r="G228" s="8">
         <v>33.630000000000003</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <v>0</v>
       </c>
@@ -5724,8 +6416,11 @@
       <c r="G229" s="6">
         <v>33.58</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <v>0.03</v>
       </c>
@@ -5747,8 +6442,11 @@
       <c r="G230" s="8">
         <v>33.590000000000003</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
         <v>-0.08</v>
       </c>
@@ -5770,8 +6468,11 @@
       <c r="G231" s="6">
         <v>33.6</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <v>-0.38</v>
       </c>
@@ -5793,8 +6494,11 @@
       <c r="G232" s="8">
         <v>33.56</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
         <v>-0.4</v>
       </c>
@@ -5816,8 +6520,11 @@
       <c r="G233" s="6">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <v>-0.19</v>
       </c>
@@ -5839,8 +6546,11 @@
       <c r="G234" s="8">
         <v>33.479999999999997</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
         <v>-0.21</v>
       </c>
@@ -5862,8 +6572,11 @@
       <c r="G235" s="6">
         <v>33.46</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <v>-0.32</v>
       </c>
@@ -5885,8 +6598,11 @@
       <c r="G236" s="8">
         <v>33.42</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
         <v>-0.03</v>
       </c>
@@ -5908,8 +6624,11 @@
       <c r="G237" s="6">
         <v>33.39</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <v>-0.03</v>
       </c>
@@ -5931,8 +6650,11 @@
       <c r="G238" s="8">
         <v>33.39</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
         <v>-0.11</v>
       </c>
@@ -5954,8 +6676,11 @@
       <c r="G239" s="6">
         <v>33.18</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <v>-0.33</v>
       </c>
@@ -5977,8 +6702,11 @@
       <c r="G240" s="8">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
         <v>-0.13</v>
       </c>
@@ -6000,8 +6728,11 @@
       <c r="G241" s="6">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
         <v>-0.27</v>
       </c>
@@ -6023,8 +6754,11 @@
       <c r="G242" s="8">
         <v>33.24</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
         <v>-0.77</v>
       </c>
@@ -6046,8 +6780,11 @@
       <c r="G243" s="6">
         <v>33.26</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <v>-0.32</v>
       </c>
@@ -6069,8 +6806,11 @@
       <c r="G244" s="8">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
         <v>-0.38</v>
       </c>
@@ -6092,8 +6832,11 @@
       <c r="G245" s="6">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <v>-0.37</v>
       </c>
@@ -6115,8 +6858,11 @@
       <c r="G246" s="8">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
         <v>-0.31</v>
       </c>
@@ -6138,8 +6884,11 @@
       <c r="G247" s="6">
         <v>33.22</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
         <v>-0.51</v>
       </c>
@@ -6161,8 +6910,11 @@
       <c r="G248" s="8">
         <v>33.22</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
         <v>-0.43</v>
       </c>
@@ -6184,8 +6936,11 @@
       <c r="G249" s="6">
         <v>33.24</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
         <v>-0.44</v>
       </c>
@@ -6207,8 +6962,11 @@
       <c r="G250" s="8">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
         <v>-0.19</v>
       </c>
@@ -6230,8 +6988,11 @@
       <c r="G251" s="6">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="7">
         <v>-0.67</v>
       </c>
@@ -6253,8 +7014,11 @@
       <c r="G252" s="8">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
         <v>-0.28000000000000003</v>
       </c>
@@ -6276,8 +7040,11 @@
       <c r="G253" s="6">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="7">
         <v>-0.19</v>
       </c>
@@ -6299,8 +7066,11 @@
       <c r="G254" s="8">
         <v>33.22</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
         <v>-0.4</v>
       </c>
@@ -6322,8 +7092,11 @@
       <c r="G255" s="6">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <v>-0.05</v>
       </c>
@@ -6345,8 +7118,11 @@
       <c r="G256" s="8">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
         <v>-0.12</v>
       </c>
@@ -6368,8 +7144,11 @@
       <c r="G257" s="6">
         <v>33.18</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
         <v>0.04</v>
       </c>
@@ -6391,8 +7170,11 @@
       <c r="G258" s="8">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
         <v>0</v>
       </c>
@@ -6414,8 +7196,11 @@
       <c r="G259" s="6">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
         <v>-0.34</v>
       </c>
@@ -6437,8 +7222,11 @@
       <c r="G260" s="8">
         <v>33.22</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
         <v>-0.11</v>
       </c>
@@ -6460,8 +7248,11 @@
       <c r="G261" s="6">
         <v>33.18</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="7">
         <v>-0.31</v>
       </c>
@@ -6483,8 +7274,11 @@
       <c r="G262" s="8">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
         <v>-0.23</v>
       </c>
@@ -6506,8 +7300,11 @@
       <c r="G263" s="6">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="7">
         <v>-0.26</v>
       </c>
@@ -6529,8 +7326,11 @@
       <c r="G264" s="8">
         <v>33.18</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
         <v>-0.27</v>
       </c>
@@ -6552,8 +7352,11 @@
       <c r="G265" s="6">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
         <v>-0.36</v>
       </c>
@@ -6575,8 +7378,11 @@
       <c r="G266" s="8">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
         <v>-0.34</v>
       </c>
@@ -6598,8 +7404,11 @@
       <c r="G267" s="6">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="7">
         <v>-0.22</v>
       </c>
@@ -6621,8 +7430,11 @@
       <c r="G268" s="8">
         <v>33.19</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
         <v>-0.14000000000000001</v>
       </c>
@@ -6644,8 +7456,11 @@
       <c r="G269" s="6">
         <v>33.18</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="7">
         <v>-0.34</v>
       </c>
@@ -6667,8 +7482,11 @@
       <c r="G270" s="8">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
         <v>-0.12</v>
       </c>
@@ -6690,8 +7508,11 @@
       <c r="G271" s="6">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="7">
         <v>-0.23</v>
       </c>
@@ -6713,8 +7534,11 @@
       <c r="G272" s="8">
         <v>33.19</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
         <v>-0.28000000000000003</v>
       </c>
@@ -6736,8 +7560,11 @@
       <c r="G273" s="6">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
         <v>-0.27</v>
       </c>
@@ -6759,8 +7586,11 @@
       <c r="G274" s="8">
         <v>33.159999999999997</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -6782,8 +7612,11 @@
       <c r="G275" s="6">
         <v>33.17</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
         <v>-0.32</v>
       </c>
@@ -6805,8 +7638,11 @@
       <c r="G276" s="8">
         <v>33.18</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="5">
         <v>-0.32</v>
       </c>
@@ -6828,8 +7664,11 @@
       <c r="G277" s="6">
         <v>33.19</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
         <v>-0.19</v>
       </c>
@@ -6851,8 +7690,11 @@
       <c r="G278" s="8">
         <v>33.17</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
         <v>-0.28000000000000003</v>
       </c>
@@ -6874,8 +7716,11 @@
       <c r="G279" s="6">
         <v>33.17</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
         <v>-0.28999999999999998</v>
       </c>
@@ -6897,8 +7742,11 @@
       <c r="G280" s="8">
         <v>33.18</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
         <v>-0.16</v>
       </c>
@@ -6920,8 +7768,11 @@
       <c r="G281" s="6">
         <v>33.14</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
         <v>-0.28999999999999998</v>
       </c>
@@ -6943,8 +7794,11 @@
       <c r="G282" s="8">
         <v>33.18</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
         <v>-0.31</v>
       </c>
@@ -6966,8 +7820,11 @@
       <c r="G283" s="6">
         <v>33.18</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="7">
         <v>-0.16</v>
       </c>
@@ -6989,8 +7846,11 @@
       <c r="G284" s="8">
         <v>33.17</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H284" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
         <v>-0.06</v>
       </c>
@@ -7012,8 +7872,11 @@
       <c r="G285" s="6">
         <v>33.17</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="7">
         <v>-0.28999999999999998</v>
       </c>
@@ -7035,8 +7898,11 @@
       <c r="G286" s="8">
         <v>33.14</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
         <v>-0.15</v>
       </c>
@@ -7058,8 +7924,11 @@
       <c r="G287" s="6">
         <v>33.15</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="7">
         <v>-0.04</v>
       </c>
@@ -7081,8 +7950,11 @@
       <c r="G288" s="8">
         <v>33.14</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
         <v>-0.21</v>
       </c>
@@ -7104,8 +7976,11 @@
       <c r="G289" s="6">
         <v>33.17</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H289" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="7">
         <v>-0.37</v>
       </c>
@@ -7127,8 +8002,11 @@
       <c r="G290" s="8">
         <v>33.14</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
         <v>-0.17</v>
       </c>
@@ -7150,8 +8028,11 @@
       <c r="G291" s="6">
         <v>33.14</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="7">
         <v>-0.38</v>
       </c>
@@ -7173,8 +8054,11 @@
       <c r="G292" s="8">
         <v>33.14</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H292" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
         <v>-0.49</v>
       </c>
@@ -7196,8 +8080,11 @@
       <c r="G293" s="6">
         <v>33.119999999999997</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H293" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="7">
         <v>-0.24</v>
       </c>
@@ -7219,8 +8106,11 @@
       <c r="G294" s="8">
         <v>33.14</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H294" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
         <v>-0.06</v>
       </c>
@@ -7242,8 +8132,11 @@
       <c r="G295" s="6">
         <v>33.11</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="7">
         <v>-0.22</v>
       </c>
@@ -7265,8 +8158,11 @@
       <c r="G296" s="8">
         <v>33.14</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H296" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
         <v>-0.26</v>
       </c>
@@ -7288,8 +8184,11 @@
       <c r="G297" s="6">
         <v>33.119999999999997</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H297" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="7">
         <v>-0.24</v>
       </c>
@@ -7311,8 +8210,11 @@
       <c r="G298" s="8">
         <v>33.11</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H298" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -7334,8 +8236,11 @@
       <c r="G299" s="6">
         <v>33.130000000000003</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H299" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="7">
         <v>-0.3</v>
       </c>
@@ -7357,8 +8262,11 @@
       <c r="G300" s="8">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H300" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
         <v>-0.11</v>
       </c>
@@ -7380,8 +8288,11 @@
       <c r="G301" s="6">
         <v>33.119999999999997</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H301" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="7">
         <v>-0.08</v>
       </c>
@@ -7403,8 +8314,11 @@
       <c r="G302" s="8">
         <v>33.130000000000003</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H302" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
         <v>-0.37</v>
       </c>
@@ -7426,8 +8340,11 @@
       <c r="G303" s="6">
         <v>33.090000000000003</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H303" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="7">
         <v>-0.26</v>
       </c>
@@ -7449,8 +8366,11 @@
       <c r="G304" s="8">
         <v>33.090000000000003</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H304" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
         <v>-0.42</v>
       </c>
@@ -7472,8 +8392,11 @@
       <c r="G305" s="6">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H305" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="7">
         <v>-0.24</v>
       </c>
@@ -7495,8 +8418,11 @@
       <c r="G306" s="8">
         <v>33.08</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H306" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
         <v>-0.16</v>
       </c>
@@ -7518,8 +8444,11 @@
       <c r="G307" s="6">
         <v>33.090000000000003</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H307" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="7">
         <v>0.18</v>
       </c>
@@ -7541,8 +8470,11 @@
       <c r="G308" s="8">
         <v>33.090000000000003</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H308" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
         <v>-0.17</v>
       </c>
@@ -7564,8 +8496,11 @@
       <c r="G309" s="6">
         <v>33.07</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H309" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="7">
         <v>0.03</v>
       </c>
@@ -7587,8 +8522,11 @@
       <c r="G310" s="8">
         <v>33.090000000000003</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H310" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
         <v>-0.3</v>
       </c>
@@ -7610,8 +8548,11 @@
       <c r="G311" s="6">
         <v>33.08</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H311" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="7">
         <v>-0.27</v>
       </c>
@@ -7633,8 +8574,11 @@
       <c r="G312" s="8">
         <v>33.08</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H312" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
         <v>-0.48</v>
       </c>
@@ -7656,8 +8600,11 @@
       <c r="G313" s="6">
         <v>33.06</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H313" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="7">
         <v>-0.12</v>
       </c>
@@ -7679,8 +8626,11 @@
       <c r="G314" s="8">
         <v>33.07</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H314" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>-0.39</v>
       </c>
@@ -7702,8 +8652,11 @@
       <c r="G315" s="6">
         <v>33.049999999999997</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H315" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="7">
         <v>-0.28000000000000003</v>
       </c>
@@ -7725,8 +8678,11 @@
       <c r="G316" s="8">
         <v>33.08</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H316" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
         <v>-0.32</v>
       </c>
@@ -7748,8 +8704,11 @@
       <c r="G317" s="6">
         <v>33.049999999999997</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H317" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="7">
         <v>-0.34</v>
       </c>
@@ -7771,8 +8730,11 @@
       <c r="G318" s="8">
         <v>33.08</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H318" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
         <v>-0.02</v>
       </c>
@@ -7794,8 +8756,11 @@
       <c r="G319" s="6">
         <v>33.06</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H319" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="7">
         <v>-0.11</v>
       </c>
@@ -7817,8 +8782,11 @@
       <c r="G320" s="8">
         <v>33.04</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H320" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
         <v>-0.12</v>
       </c>
@@ -7840,8 +8808,11 @@
       <c r="G321" s="6">
         <v>33.04</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H321" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="7">
         <v>-0.13</v>
       </c>
@@ -7863,8 +8834,11 @@
       <c r="G322" s="8">
         <v>33.03</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H322" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
         <v>-0.06</v>
       </c>
@@ -7886,8 +8860,11 @@
       <c r="G323" s="6">
         <v>33.020000000000003</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H323" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="7">
         <v>0.01</v>
       </c>
@@ -7909,8 +8886,11 @@
       <c r="G324" s="8">
         <v>33.01</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H324" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
         <v>-0.11</v>
       </c>
@@ -7932,8 +8912,11 @@
       <c r="G325" s="6">
         <v>32.99</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H325" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="7">
         <v>-0.11</v>
       </c>
@@ -7955,8 +8938,11 @@
       <c r="G326" s="8">
         <v>33.020000000000003</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H326" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
         <v>-0.12</v>
       </c>
@@ -7978,8 +8964,11 @@
       <c r="G327" s="6">
         <v>32.979999999999997</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H327" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="7">
         <v>-0.2</v>
       </c>
@@ -8001,8 +8990,11 @@
       <c r="G328" s="8">
         <v>32.99</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H328" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
         <v>-0.12</v>
       </c>
@@ -8024,8 +9016,11 @@
       <c r="G329" s="6">
         <v>33.01</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H329" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="7">
         <v>-0.22</v>
       </c>
@@ -8047,8 +9042,11 @@
       <c r="G330" s="8">
         <v>32.96</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H330" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
         <v>-0.23</v>
       </c>
@@ -8070,8 +9068,11 @@
       <c r="G331" s="6">
         <v>32.96</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H331" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="7">
         <v>-0.04</v>
       </c>
@@ -8093,8 +9094,11 @@
       <c r="G332" s="8">
         <v>32.97</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H332" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
         <v>-0.32</v>
       </c>
@@ -8116,8 +9120,11 @@
       <c r="G333" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H333" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="7">
         <v>-0.08</v>
       </c>
@@ -8139,8 +9146,11 @@
       <c r="G334" s="8">
         <v>32.99</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H334" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
         <v>-0.27</v>
       </c>
@@ -8162,8 +9172,11 @@
       <c r="G335" s="6">
         <v>32.950000000000003</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H335" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="7">
         <v>-0.17</v>
       </c>
@@ -8185,8 +9198,11 @@
       <c r="G336" s="8">
         <v>32.96</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H336" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
         <v>0.12</v>
       </c>
@@ -8208,8 +9224,11 @@
       <c r="G337" s="6">
         <v>32.93</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H337" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -8231,8 +9250,11 @@
       <c r="G338" s="8">
         <v>32.93</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H338" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
         <v>-0.11</v>
       </c>
@@ -8254,8 +9276,11 @@
       <c r="G339" s="6">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H339" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="7">
         <v>-0.01</v>
       </c>
@@ -8277,8 +9302,11 @@
       <c r="G340" s="8">
         <v>32.93</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H340" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
         <v>-0.15</v>
       </c>
@@ -8300,8 +9328,11 @@
       <c r="G341" s="6">
         <v>32.93</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H341" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="7">
         <v>0.06</v>
       </c>
@@ -8323,8 +9354,11 @@
       <c r="G342" s="8">
         <v>32.92</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H342" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
         <v>-0.08</v>
       </c>
@@ -8346,8 +9380,11 @@
       <c r="G343" s="6">
         <v>32.909999999999997</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H343" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="7">
         <v>-0.02</v>
       </c>
@@ -8369,8 +9406,11 @@
       <c r="G344" s="8">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H344" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
         <v>-0.02</v>
       </c>
@@ -8392,8 +9432,11 @@
       <c r="G345" s="6">
         <v>32.909999999999997</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H345" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="7">
         <v>-0.04</v>
       </c>
@@ -8415,8 +9458,11 @@
       <c r="G346" s="8">
         <v>32.909999999999997</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H346" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="5">
         <v>0.15</v>
       </c>
@@ -8438,8 +9484,11 @@
       <c r="G347" s="6">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H347" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="7">
         <v>-0.1</v>
       </c>
@@ -8461,8 +9510,11 @@
       <c r="G348" s="8">
         <v>32.89</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H348" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
         <v>-0.01</v>
       </c>
@@ -8484,8 +9536,11 @@
       <c r="G349" s="6">
         <v>32.880000000000003</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H349" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="7">
         <v>-0.2</v>
       </c>
@@ -8507,8 +9562,11 @@
       <c r="G350" s="8">
         <v>32.86</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H350" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
         <v>-0.18</v>
       </c>
@@ -8530,8 +9588,11 @@
       <c r="G351" s="6">
         <v>32.869999999999997</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H351" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="7">
         <v>-0.11</v>
       </c>
@@ -8553,8 +9614,11 @@
       <c r="G352" s="8">
         <v>32.840000000000003</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H352" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="5">
         <v>-0.36</v>
       </c>
@@ -8576,8 +9640,11 @@
       <c r="G353" s="6">
         <v>32.840000000000003</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H353" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="7">
         <v>-0.28999999999999998</v>
       </c>
@@ -8599,8 +9666,11 @@
       <c r="G354" s="8">
         <v>32.83</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H354" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="5">
         <v>0.1</v>
       </c>
@@ -8622,8 +9692,11 @@
       <c r="G355" s="6">
         <v>32.85</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H355" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="7">
         <v>-0.26</v>
       </c>
@@ -8645,8 +9718,11 @@
       <c r="G356" s="8">
         <v>32.85</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H356" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
         <v>-0.13</v>
       </c>
@@ -8668,8 +9744,11 @@
       <c r="G357" s="6">
         <v>32.85</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H357" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="7">
         <v>0.14000000000000001</v>
       </c>
@@ -8691,8 +9770,11 @@
       <c r="G358" s="8">
         <v>32.82</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H358" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="5">
         <v>-0.27</v>
       </c>
@@ -8714,8 +9796,11 @@
       <c r="G359" s="6">
         <v>32.799999999999997</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H359" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="7">
         <v>-0.14000000000000001</v>
       </c>
@@ -8737,8 +9822,11 @@
       <c r="G360" s="8">
         <v>32.79</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H360" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="5">
         <v>0.22</v>
       </c>
@@ -8760,8 +9848,11 @@
       <c r="G361" s="6">
         <v>32.79</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H361" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="7">
         <v>-0.06</v>
       </c>
@@ -8783,8 +9874,11 @@
       <c r="G362" s="8">
         <v>32.79</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H362" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
         <v>0.02</v>
       </c>
@@ -8806,8 +9900,11 @@
       <c r="G363" s="6">
         <v>32.799999999999997</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H363" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="7">
         <v>0.19</v>
       </c>
@@ -8829,8 +9926,11 @@
       <c r="G364" s="8">
         <v>32.78</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H364" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="5">
         <v>0.14000000000000001</v>
       </c>
@@ -8852,8 +9952,11 @@
       <c r="G365" s="6">
         <v>32.81</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H365" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="7">
         <v>0.03</v>
       </c>
@@ -8875,8 +9978,11 @@
       <c r="G366" s="8">
         <v>32.770000000000003</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H366" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="5">
         <v>0.14000000000000001</v>
       </c>
@@ -8898,8 +10004,11 @@
       <c r="G367" s="6">
         <v>32.619999999999997</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H367" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="7">
         <v>0.13</v>
       </c>
@@ -8921,8 +10030,11 @@
       <c r="G368" s="8">
         <v>32.64</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H368" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="5">
         <v>0.14000000000000001</v>
       </c>
@@ -8944,8 +10056,11 @@
       <c r="G369" s="6">
         <v>32.64</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H369" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="7">
         <v>0.15</v>
       </c>
@@ -8967,8 +10082,11 @@
       <c r="G370" s="8">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H370" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
         <v>0.09</v>
       </c>
@@ -8990,8 +10108,11 @@
       <c r="G371" s="6">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H371" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="7">
         <v>0.14000000000000001</v>
       </c>
@@ -9013,8 +10134,11 @@
       <c r="G372" s="8">
         <v>32.69</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H372" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="5">
         <v>0.12</v>
       </c>
@@ -9036,8 +10160,11 @@
       <c r="G373" s="6">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H373" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="7">
         <v>0.06</v>
       </c>
@@ -9059,8 +10186,11 @@
       <c r="G374" s="8">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H374" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="5">
         <v>-0.01</v>
       </c>
@@ -9082,8 +10212,11 @@
       <c r="G375" s="6">
         <v>32.74</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H375" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="7">
         <v>0.09</v>
       </c>
@@ -9105,8 +10238,11 @@
       <c r="G376" s="8">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H376" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="5">
         <v>0.15</v>
       </c>
@@ -9128,8 +10264,11 @@
       <c r="G377" s="6">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H377" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="7">
         <v>0</v>
       </c>
@@ -9151,8 +10290,11 @@
       <c r="G378" s="8">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H378" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="5">
         <v>0.1</v>
       </c>
@@ -9174,8 +10316,11 @@
       <c r="G379" s="6">
         <v>32.770000000000003</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H379" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="7">
         <v>0.01</v>
       </c>
@@ -9197,8 +10342,11 @@
       <c r="G380" s="8">
         <v>32.79</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H380" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="5">
         <v>0.09</v>
       </c>
@@ -9220,8 +10368,11 @@
       <c r="G381" s="6">
         <v>32.770000000000003</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H381" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="7">
         <v>-0.1</v>
       </c>
@@ -9243,8 +10394,11 @@
       <c r="G382" s="8">
         <v>32.799999999999997</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H382" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="5">
         <v>0.14000000000000001</v>
       </c>
@@ -9266,8 +10420,11 @@
       <c r="G383" s="6">
         <v>32.79</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H383" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="7">
         <v>0.09</v>
       </c>
@@ -9289,8 +10446,11 @@
       <c r="G384" s="8">
         <v>32.799999999999997</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H384" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="5">
         <v>-0.01</v>
       </c>
@@ -9312,8 +10472,11 @@
       <c r="G385" s="6">
         <v>32.799999999999997</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H385" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="7">
         <v>0.15</v>
       </c>
@@ -9335,8 +10498,11 @@
       <c r="G386" s="8">
         <v>32.79</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H386" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="5">
         <v>0.2</v>
       </c>
@@ -9358,8 +10524,11 @@
       <c r="G387" s="6">
         <v>32.799999999999997</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H387" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="7">
         <v>0.06</v>
       </c>
@@ -9381,8 +10550,11 @@
       <c r="G388" s="8">
         <v>32.85</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H388" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
         <v>-0.06</v>
       </c>
@@ -9404,8 +10576,11 @@
       <c r="G389" s="6">
         <v>32.82</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H389" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="7">
         <v>0.03</v>
       </c>
@@ -9427,8 +10602,11 @@
       <c r="G390" s="8">
         <v>32.840000000000003</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H390" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="5">
         <v>0.26</v>
       </c>
@@ -9450,8 +10628,11 @@
       <c r="G391" s="6">
         <v>32.83</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H391" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="7">
         <v>0.14000000000000001</v>
       </c>
@@ -9473,8 +10654,11 @@
       <c r="G392" s="8">
         <v>32.85</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H392" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
         <v>-0.03</v>
       </c>
@@ -9496,8 +10680,11 @@
       <c r="G393" s="6">
         <v>32.82</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H393" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="7">
         <v>0.17</v>
       </c>
@@ -9519,8 +10706,11 @@
       <c r="G394" s="8">
         <v>32.85</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H394" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
         <v>0.15</v>
       </c>
@@ -9542,8 +10732,11 @@
       <c r="G395" s="6">
         <v>32.86</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H395" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="7">
         <v>0.2</v>
       </c>
@@ -9565,8 +10758,11 @@
       <c r="G396" s="8">
         <v>32.869999999999997</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H396" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="5">
         <v>0</v>
       </c>
@@ -9588,8 +10784,11 @@
       <c r="G397" s="6">
         <v>32.89</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H397" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="7">
         <v>0.11</v>
       </c>
@@ -9611,8 +10810,11 @@
       <c r="G398" s="8">
         <v>32.880000000000003</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H398" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="5">
         <v>0.17</v>
       </c>
@@ -9634,8 +10836,11 @@
       <c r="G399" s="6">
         <v>32.89</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H399" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="7">
         <v>0.06</v>
       </c>
@@ -9657,8 +10862,11 @@
       <c r="G400" s="8">
         <v>32.93</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H400" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
         <v>-0.11</v>
       </c>
@@ -9680,8 +10888,11 @@
       <c r="G401" s="6">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H401" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -9703,8 +10914,11 @@
       <c r="G402" s="8">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H402" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="5">
         <v>-0.17</v>
       </c>
@@ -9726,8 +10940,11 @@
       <c r="G403" s="6">
         <v>32.909999999999997</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H403" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="7">
         <v>0</v>
       </c>
@@ -9749,8 +10966,11 @@
       <c r="G404" s="8">
         <v>32.93</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H404" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="5">
         <v>0.09</v>
       </c>
@@ -9772,8 +10992,11 @@
       <c r="G405" s="6">
         <v>32.93</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H405" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="7">
         <v>0.25</v>
       </c>
@@ -9795,8 +11018,11 @@
       <c r="G406" s="8">
         <v>32.92</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H406" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
         <v>0.36</v>
       </c>
@@ -9818,8 +11044,11 @@
       <c r="G407" s="6">
         <v>32.93</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H407" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="7">
         <v>-0.12</v>
       </c>
@@ -9841,8 +11070,11 @@
       <c r="G408" s="8">
         <v>32.950000000000003</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H408" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
         <v>-0.05</v>
       </c>
@@ -9864,8 +11096,11 @@
       <c r="G409" s="6">
         <v>32.97</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H409" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="7">
         <v>0.06</v>
       </c>
@@ -9887,8 +11122,11 @@
       <c r="G410" s="8">
         <v>32.97</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H410" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
         <v>0.24</v>
       </c>
@@ -9910,8 +11148,11 @@
       <c r="G411" s="6">
         <v>32.979999999999997</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H411" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="7">
         <v>0.23</v>
       </c>
@@ -9933,8 +11174,11 @@
       <c r="G412" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H412" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
         <v>-0.08</v>
       </c>
@@ -9956,8 +11200,11 @@
       <c r="G413" s="6">
         <v>32.979999999999997</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H413" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="7">
         <v>0.15</v>
       </c>
@@ -9979,8 +11226,11 @@
       <c r="G414" s="8">
         <v>32.979999999999997</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H414" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="5">
         <v>-0.05</v>
       </c>
@@ -10002,8 +11252,11 @@
       <c r="G415" s="6">
         <v>33.01</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H415" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="7">
         <v>0.11</v>
       </c>
@@ -10025,8 +11278,11 @@
       <c r="G416" s="8">
         <v>33.01</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H416" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="5">
         <v>0.16</v>
       </c>
@@ -10048,8 +11304,11 @@
       <c r="G417" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H417" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -10071,8 +11330,11 @@
       <c r="G418" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H418" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
         <v>0.5</v>
       </c>
@@ -10094,8 +11356,11 @@
       <c r="G419" s="6">
         <v>33.049999999999997</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H419" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="7">
         <v>0.08</v>
       </c>
@@ -10117,8 +11382,11 @@
       <c r="G420" s="8">
         <v>33.04</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H420" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
         <v>0.1</v>
       </c>
@@ -10140,8 +11408,11 @@
       <c r="G421" s="6">
         <v>33.049999999999997</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H421" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="7">
         <v>0.2</v>
       </c>
@@ -10163,8 +11434,11 @@
       <c r="G422" s="8">
         <v>33.04</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H422" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
         <v>0.19</v>
       </c>
@@ -10186,8 +11460,11 @@
       <c r="G423" s="6">
         <v>33.07</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H423" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="7">
         <v>0.18</v>
       </c>
@@ -10209,8 +11486,11 @@
       <c r="G424" s="8">
         <v>33.07</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H424" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -10232,8 +11512,11 @@
       <c r="G425" s="6">
         <v>33.11</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H425" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="7">
         <v>-0.12</v>
       </c>
@@ -10255,8 +11538,11 @@
       <c r="G426" s="8">
         <v>33.07</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H426" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
         <v>0.16</v>
       </c>
@@ -10278,8 +11564,11 @@
       <c r="G427" s="6">
         <v>33.11</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H427" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="7">
         <v>0.09</v>
       </c>
@@ -10301,8 +11590,11 @@
       <c r="G428" s="8">
         <v>33.11</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H428" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
         <v>-0.06</v>
       </c>
@@ -10324,8 +11616,11 @@
       <c r="G429" s="6">
         <v>33.14</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H429" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="7">
         <v>0.43</v>
       </c>
@@ -10347,8 +11642,11 @@
       <c r="G430" s="8">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H430" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
         <v>0.14000000000000001</v>
       </c>
@@ -10370,8 +11668,11 @@
       <c r="G431" s="6">
         <v>33.14</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H431" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -10393,8 +11694,11 @@
       <c r="G432" s="8">
         <v>33.11</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H432" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
         <v>0.19</v>
       </c>
@@ -10416,8 +11720,11 @@
       <c r="G433" s="6">
         <v>33.15</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H433" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="7">
         <v>0.19</v>
       </c>
@@ -10439,8 +11746,11 @@
       <c r="G434" s="8">
         <v>33.159999999999997</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H434" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
         <v>0.31</v>
       </c>
@@ -10462,8 +11772,11 @@
       <c r="G435" s="6">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H435" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="7">
         <v>0.21</v>
       </c>
@@ -10485,8 +11798,11 @@
       <c r="G436" s="8">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H436" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
         <v>-0.02</v>
       </c>
@@ -10508,8 +11824,11 @@
       <c r="G437" s="6">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H437" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="7">
         <v>0.13</v>
       </c>
@@ -10531,8 +11850,11 @@
       <c r="G438" s="8">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H438" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
         <v>0.31</v>
       </c>
@@ -10554,8 +11876,11 @@
       <c r="G439" s="6">
         <v>33.22</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H439" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="7">
         <v>0.18</v>
       </c>
@@ -10577,8 +11902,11 @@
       <c r="G440" s="8">
         <v>33.19</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H440" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
         <v>0.09</v>
       </c>
@@ -10600,8 +11928,11 @@
       <c r="G441" s="6">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H441" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="7">
         <v>-0.03</v>
       </c>
@@ -10623,8 +11954,11 @@
       <c r="G442" s="8">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H442" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
         <v>-0.08</v>
       </c>
@@ -10646,8 +11980,11 @@
       <c r="G443" s="6">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H443" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="7">
         <v>0.02</v>
       </c>
@@ -10669,8 +12006,11 @@
       <c r="G444" s="8">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H444" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
         <v>0.13</v>
       </c>
@@ -10692,8 +12032,11 @@
       <c r="G445" s="6">
         <v>33.24</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H445" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="7">
         <v>0.08</v>
       </c>
@@ -10715,8 +12058,11 @@
       <c r="G446" s="8">
         <v>33.22</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H446" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
         <v>0.44</v>
       </c>
@@ -10738,8 +12084,11 @@
       <c r="G447" s="6">
         <v>33.24</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H447" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="7">
         <v>0.01</v>
       </c>
@@ -10761,8 +12110,11 @@
       <c r="G448" s="8">
         <v>33.270000000000003</v>
       </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H448" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
         <v>-0.11</v>
       </c>
@@ -10784,8 +12136,11 @@
       <c r="G449" s="6">
         <v>33.24</v>
       </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H449" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="7">
         <v>0.06</v>
       </c>
@@ -10807,8 +12162,11 @@
       <c r="G450" s="8">
         <v>33.270000000000003</v>
       </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H450" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
         <v>0.05</v>
       </c>
@@ -10830,8 +12188,11 @@
       <c r="G451" s="6">
         <v>33.270000000000003</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H451" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="7">
         <v>0.01</v>
       </c>
@@ -10853,8 +12214,11 @@
       <c r="G452" s="8">
         <v>33.32</v>
       </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H452" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
         <v>0.09</v>
       </c>
@@ -10876,8 +12240,11 @@
       <c r="G453" s="6">
         <v>33.29</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H453" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="7">
         <v>0.23</v>
       </c>
@@ -10899,8 +12266,11 @@
       <c r="G454" s="8">
         <v>33.32</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H454" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -10922,8 +12292,11 @@
       <c r="G455" s="6">
         <v>33.299999999999997</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H455" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="7">
         <v>0.06</v>
       </c>
@@ -10945,8 +12318,11 @@
       <c r="G456" s="8">
         <v>33.31</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H456" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
         <v>-0.11</v>
       </c>
@@ -10968,8 +12344,11 @@
       <c r="G457" s="6">
         <v>33.36</v>
       </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H457" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="7">
         <v>0.08</v>
       </c>
@@ -10991,8 +12370,11 @@
       <c r="G458" s="8">
         <v>33.39</v>
       </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H458" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
         <v>0</v>
       </c>
@@ -11014,8 +12396,11 @@
       <c r="G459" s="6">
         <v>33.369999999999997</v>
       </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H459" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="7">
         <v>0.02</v>
       </c>
@@ -11037,8 +12422,11 @@
       <c r="G460" s="8">
         <v>33.409999999999997</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H460" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
         <v>0.1</v>
       </c>
@@ -11060,8 +12448,11 @@
       <c r="G461" s="6">
         <v>33.380000000000003</v>
       </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H461" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="7">
         <v>-0.04</v>
       </c>
@@ -11083,8 +12474,11 @@
       <c r="G462" s="8">
         <v>33.43</v>
       </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H462" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
         <v>0.09</v>
       </c>
@@ -11106,8 +12500,11 @@
       <c r="G463" s="6">
         <v>33.409999999999997</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H463" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="7">
         <v>-0.11</v>
       </c>
@@ -11129,8 +12526,11 @@
       <c r="G464" s="8">
         <v>33.409999999999997</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H464" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
         <v>-0.27</v>
       </c>
@@ -11152,8 +12552,11 @@
       <c r="G465" s="6">
         <v>33.44</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H465" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="7">
         <v>0.02</v>
       </c>
@@ -11175,8 +12578,11 @@
       <c r="G466" s="8">
         <v>33.44</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H466" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
         <v>-0.15</v>
       </c>
@@ -11198,8 +12604,11 @@
       <c r="G467" s="6">
         <v>33.46</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H467" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="7">
         <v>0.42</v>
       </c>
@@ -11221,8 +12630,11 @@
       <c r="G468" s="8">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H468" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
         <v>0.08</v>
       </c>
@@ -11244,8 +12656,11 @@
       <c r="G469" s="6">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H469" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="7">
         <v>0.02</v>
       </c>
@@ -11267,8 +12682,11 @@
       <c r="G470" s="8">
         <v>33.520000000000003</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H470" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
         <v>0.03</v>
       </c>
@@ -11290,8 +12708,11 @@
       <c r="G471" s="6">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H471" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="7">
         <v>-0.18</v>
       </c>
@@ -11313,8 +12734,11 @@
       <c r="G472" s="8">
         <v>33.54</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H472" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
         <v>-0.02</v>
       </c>
@@ -11336,8 +12760,11 @@
       <c r="G473" s="6">
         <v>33.54</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H473" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="7">
         <v>-0.19</v>
       </c>
@@ -11359,8 +12786,11 @@
       <c r="G474" s="8">
         <v>33.590000000000003</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H474" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
         <v>0</v>
       </c>
@@ -11382,8 +12812,11 @@
       <c r="G475" s="6">
         <v>33.57</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H475" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="7">
         <v>0.13</v>
       </c>
@@ -11405,8 +12838,11 @@
       <c r="G476" s="8">
         <v>33.56</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H476" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
         <v>0.06</v>
       </c>
@@ -11428,8 +12864,11 @@
       <c r="G477" s="6">
         <v>33.590000000000003</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H477" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -11451,8 +12890,11 @@
       <c r="G478" s="8">
         <v>33.61</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H478" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
         <v>0.06</v>
       </c>
@@ -11474,8 +12916,11 @@
       <c r="G479" s="6">
         <v>33.619999999999997</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H479" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="7">
         <v>-0.21</v>
       </c>
@@ -11497,8 +12942,11 @@
       <c r="G480" s="8">
         <v>33.68</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H480" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
         <v>0.22</v>
       </c>
@@ -11520,8 +12968,11 @@
       <c r="G481" s="6">
         <v>33.65</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H481" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="7">
         <v>0.12</v>
       </c>
@@ -11543,8 +12994,11 @@
       <c r="G482" s="8">
         <v>33.65</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H482" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
         <v>-0.49</v>
       </c>
@@ -11566,8 +13020,11 @@
       <c r="G483" s="6">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H483" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="7">
         <v>0.19</v>
       </c>
@@ -11589,8 +13046,11 @@
       <c r="G484" s="8">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H484" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
         <v>0.31</v>
       </c>
@@ -11612,8 +13072,11 @@
       <c r="G485" s="6">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H485" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="7">
         <v>-0.01</v>
       </c>
@@ -11635,8 +13098,11 @@
       <c r="G486" s="8">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H486" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
         <v>0.25</v>
       </c>
@@ -11658,8 +13124,11 @@
       <c r="G487" s="6">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H487" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="7">
         <v>-0.23</v>
       </c>
@@ -11681,8 +13150,11 @@
       <c r="G488" s="8">
         <v>32.74</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H488" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
         <v>-0.13</v>
       </c>
@@ -11704,8 +13176,11 @@
       <c r="G489" s="6">
         <v>32.74</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H489" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="7">
         <v>0.13</v>
       </c>
@@ -11727,8 +13202,11 @@
       <c r="G490" s="8">
         <v>32.770000000000003</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H490" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
         <v>-0.12</v>
       </c>
@@ -11750,8 +13228,11 @@
       <c r="G491" s="6">
         <v>32.79</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H491" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="7">
         <v>0.04</v>
       </c>
@@ -11773,8 +13254,11 @@
       <c r="G492" s="8">
         <v>32.770000000000003</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H492" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -11796,8 +13280,11 @@
       <c r="G493" s="6">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H493" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="7">
         <v>0.32</v>
       </c>
@@ -11819,8 +13306,11 @@
       <c r="G494" s="8">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H494" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
         <v>-0.05</v>
       </c>
@@ -11842,8 +13332,11 @@
       <c r="G495" s="6">
         <v>32.76</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H495" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="7">
         <v>0.25</v>
       </c>
@@ -11865,8 +13358,11 @@
       <c r="G496" s="8">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H496" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
         <v>-0.22</v>
       </c>
@@ -11888,8 +13384,11 @@
       <c r="G497" s="6">
         <v>32.74</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H497" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="7">
         <v>0.12</v>
       </c>
@@ -11911,8 +13410,11 @@
       <c r="G498" s="8">
         <v>32.76</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H498" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
         <v>-0.04</v>
       </c>
@@ -11934,8 +13436,11 @@
       <c r="G499" s="6">
         <v>32.78</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H499" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="7">
         <v>0</v>
       </c>
@@ -11957,8 +13462,11 @@
       <c r="G500" s="8">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H500" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
         <v>-0.05</v>
       </c>
@@ -11980,8 +13488,11 @@
       <c r="G501" s="6">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H501" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="7">
         <v>-0.36</v>
       </c>
@@ -12003,8 +13514,11 @@
       <c r="G502" s="8">
         <v>32.74</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H502" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="5">
         <v>-0.18</v>
       </c>
@@ -12026,8 +13540,11 @@
       <c r="G503" s="6">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H503" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="7">
         <v>-0.31</v>
       </c>
@@ -12049,8 +13566,11 @@
       <c r="G504" s="8">
         <v>32.770000000000003</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H504" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="5">
         <v>-0.08</v>
       </c>
@@ -12072,8 +13592,11 @@
       <c r="G505" s="6">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H505" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="7">
         <v>-0.01</v>
       </c>
@@ -12095,8 +13618,11 @@
       <c r="G506" s="8">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H506" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="5">
         <v>-0.14000000000000001</v>
       </c>
@@ -12118,8 +13644,11 @@
       <c r="G507" s="6">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H507" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="7">
         <v>0.01</v>
       </c>
@@ -12141,8 +13670,11 @@
       <c r="G508" s="8">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H508" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="5">
         <v>0.25</v>
       </c>
@@ -12164,8 +13696,11 @@
       <c r="G509" s="6">
         <v>32.74</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H509" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="7">
         <v>-0.01</v>
       </c>
@@ -12187,8 +13722,11 @@
       <c r="G510" s="8">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H510" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="5">
         <v>-0.05</v>
       </c>
@@ -12210,8 +13748,11 @@
       <c r="G511" s="6">
         <v>32.74</v>
       </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H511" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="7">
         <v>0.13</v>
       </c>
@@ -12233,8 +13774,11 @@
       <c r="G512" s="8">
         <v>32.74</v>
       </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H512" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="5">
         <v>-0.65</v>
       </c>
@@ -12256,8 +13800,11 @@
       <c r="G513" s="6">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H513" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="7">
         <v>-0.33</v>
       </c>
@@ -12279,8 +13826,11 @@
       <c r="G514" s="8">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H514" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="5">
         <v>-0.72</v>
       </c>
@@ -12302,8 +13852,11 @@
       <c r="G515" s="6">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H515" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="7">
         <v>0.38</v>
       </c>
@@ -12325,8 +13878,11 @@
       <c r="G516" s="8">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H516" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="5">
         <v>0.28000000000000003</v>
       </c>
@@ -12348,8 +13904,11 @@
       <c r="G517" s="6">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H517" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="7">
         <v>0.28999999999999998</v>
       </c>
@@ -12371,8 +13930,11 @@
       <c r="G518" s="8">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H518" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -12394,8 +13956,11 @@
       <c r="G519" s="6">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H519" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="7">
         <v>0.12</v>
       </c>
@@ -12417,8 +13982,11 @@
       <c r="G520" s="8">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H520" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="5">
         <v>0.01</v>
       </c>
@@ -12440,8 +14008,11 @@
       <c r="G521" s="6">
         <v>32.74</v>
       </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H521" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="7">
         <v>-0.2</v>
       </c>
@@ -12463,8 +14034,11 @@
       <c r="G522" s="8">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H522" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="5">
         <v>-0.11</v>
       </c>
@@ -12486,8 +14060,11 @@
       <c r="G523" s="6">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H523" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="7">
         <v>0.15</v>
       </c>
@@ -12509,8 +14086,11 @@
       <c r="G524" s="8">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H524" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="5">
         <v>0.18</v>
       </c>
@@ -12532,8 +14112,11 @@
       <c r="G525" s="6">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H525" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="7">
         <v>0.31</v>
       </c>
@@ -12555,8 +14138,11 @@
       <c r="G526" s="8">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H526" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="5">
         <v>-0.18</v>
       </c>
@@ -12578,8 +14164,11 @@
       <c r="G527" s="6">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H527" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="7">
         <v>0.17</v>
       </c>
@@ -12601,8 +14190,11 @@
       <c r="G528" s="8">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H528" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="5">
         <v>0.09</v>
       </c>
@@ -12624,8 +14216,11 @@
       <c r="G529" s="6">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H529" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="7">
         <v>-0.14000000000000001</v>
       </c>
@@ -12647,8 +14242,11 @@
       <c r="G530" s="8">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H530" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="5">
         <v>0.05</v>
       </c>
@@ -12670,8 +14268,11 @@
       <c r="G531" s="6">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H531" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="7">
         <v>-0.1</v>
       </c>
@@ -12693,8 +14294,11 @@
       <c r="G532" s="8">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H532" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="5">
         <v>-0.02</v>
       </c>
@@ -12716,8 +14320,11 @@
       <c r="G533" s="6">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H533" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="7">
         <v>-0.35</v>
       </c>
@@ -12739,8 +14346,11 @@
       <c r="G534" s="8">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H534" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -12762,8 +14372,11 @@
       <c r="G535" s="6">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H535" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="7">
         <v>-0.02</v>
       </c>
@@ -12785,8 +14398,11 @@
       <c r="G536" s="8">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H536" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="5">
         <v>0</v>
       </c>
@@ -12808,8 +14424,11 @@
       <c r="G537" s="6">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H537" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="7">
         <v>-0.13</v>
       </c>
@@ -12831,8 +14450,11 @@
       <c r="G538" s="8">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H538" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="5">
         <v>-0.48</v>
       </c>
@@ -12854,8 +14476,11 @@
       <c r="G539" s="6">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H539" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="7">
         <v>0.19</v>
       </c>
@@ -12877,8 +14502,11 @@
       <c r="G540" s="8">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H540" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="5">
         <v>-0.31</v>
       </c>
@@ -12900,8 +14528,11 @@
       <c r="G541" s="6">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H541" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="7">
         <v>-0.01</v>
       </c>
@@ -12923,8 +14554,11 @@
       <c r="G542" s="8">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H542" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="5">
         <v>0.08</v>
       </c>
@@ -12946,8 +14580,11 @@
       <c r="G543" s="6">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H543" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="7">
         <v>-0.21</v>
       </c>
@@ -12969,8 +14606,11 @@
       <c r="G544" s="8">
         <v>32.74</v>
       </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H544" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="5">
         <v>-0.15</v>
       </c>
@@ -12992,8 +14632,11 @@
       <c r="G545" s="6">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H545" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="7">
         <v>0</v>
       </c>
@@ -13015,8 +14658,11 @@
       <c r="G546" s="8">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H546" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="5">
         <v>-0.26</v>
       </c>
@@ -13038,8 +14684,11 @@
       <c r="G547" s="6">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H547" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="7">
         <v>0.02</v>
       </c>
@@ -13061,8 +14710,11 @@
       <c r="G548" s="8">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H548" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="5">
         <v>-0.11</v>
       </c>
@@ -13084,8 +14736,11 @@
       <c r="G549" s="6">
         <v>32.69</v>
       </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H549" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="7">
         <v>-0.47</v>
       </c>
@@ -13107,8 +14762,11 @@
       <c r="G550" s="8">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H550" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="5"/>
       <c r="B551" s="6"/>
       <c r="C551" s="6"/>
@@ -13117,7 +14775,7 @@
       <c r="F551" s="6"/>
       <c r="G551" s="6"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="7"/>
       <c r="B552" s="8"/>
       <c r="C552" s="8"/>
@@ -13126,7 +14784,7 @@
       <c r="F552" s="8"/>
       <c r="G552" s="8"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="5"/>
       <c r="B553" s="6"/>
       <c r="C553" s="6"/>
@@ -13135,7 +14793,7 @@
       <c r="F553" s="6"/>
       <c r="G553" s="6"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="7"/>
       <c r="B554" s="8"/>
       <c r="C554" s="8"/>
@@ -13144,7 +14802,7 @@
       <c r="F554" s="8"/>
       <c r="G554" s="8"/>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="5"/>
       <c r="B555" s="6"/>
       <c r="C555" s="6"/>
@@ -13153,7 +14811,7 @@
       <c r="F555" s="6"/>
       <c r="G555" s="6"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="7"/>
       <c r="B556" s="8"/>
       <c r="C556" s="8"/>
@@ -13162,7 +14820,7 @@
       <c r="F556" s="8"/>
       <c r="G556" s="8"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="5"/>
       <c r="B557" s="6"/>
       <c r="C557" s="6"/>
@@ -13171,7 +14829,7 @@
       <c r="F557" s="6"/>
       <c r="G557" s="6"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="7"/>
       <c r="B558" s="8"/>
       <c r="C558" s="8"/>
@@ -13180,7 +14838,7 @@
       <c r="F558" s="8"/>
       <c r="G558" s="8"/>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="5"/>
       <c r="B559" s="6"/>
       <c r="C559" s="6"/>
@@ -13189,7 +14847,7 @@
       <c r="F559" s="6"/>
       <c r="G559" s="6"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="7"/>
       <c r="B560" s="8"/>
       <c r="C560" s="8"/>
